--- a/admin/Student_details/2021Student_details.xlsx
+++ b/admin/Student_details/2021Student_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Sr no.</t>
   </si>
@@ -68,44 +68,143 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>Academic Year</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">123456789098765432</t>
+      <t xml:space="preserve">111111111222330000</t>
     </r>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <t xml:space="preserve">DHARMANSHU Hiteshbhai Agravat </t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>asdsds</t>
-  </si>
-  <si>
-    <t>xaxax</t>
-  </si>
-  <si>
-    <t>2021-03-01</t>
+    <t>AAAAAA</t>
+  </si>
+  <si>
+    <t>AAAAAB</t>
   </si>
   <si>
     <t>0000-00-00</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">123456789012</t>
+      <t xml:space="preserve">121223344556</t>
     </r>
   </si>
   <si>
-    <t>aqaqaqaqaq</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>qqqqqq</t>
-  </si>
-  <si>
-    <t>1aaaaaaaaaaaaa</t>
+    <t>ASSSDDDDDF</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cant tell</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">111111111222330003</t>
+    </r>
+  </si>
+  <si>
+    <t>Mayank Rathod</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>AAASSA</t>
+  </si>
+  <si>
+    <t>QWERTY</t>
+  </si>
+  <si>
+    <t>2030-02-22</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">121223344559</t>
+    </r>
+  </si>
+  <si>
+    <t>MIX</t>
+  </si>
+  <si>
+    <t>2020-2022</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">111111111222330001</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DHA </t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>AASSDD</t>
+  </si>
+  <si>
+    <t>AAWWXX</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">121223344557</t>
+    </r>
+  </si>
+  <si>
+    <t>ASSSFFFFFFF</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">111111111222330002</t>
+    </r>
+  </si>
+  <si>
+    <t>Devarsh Antani</t>
+  </si>
+  <si>
+    <t>PPPPA</t>
+  </si>
+  <si>
+    <t>QQQSSCC</t>
+  </si>
+  <si>
+    <t>2031-06-20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">121223344558</t>
+    </r>
+  </si>
+  <si>
+    <t>AAAAAEEEE</t>
+  </si>
+  <si>
+    <t>Cant decide</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
   </si>
 </sst>
 </file>
@@ -444,7 +543,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,9 +554,9 @@
     <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="47.131348" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="0"/>
@@ -468,10 +567,12 @@
     <col min="14" max="14" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="6.998291" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,64 +624,263 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>12125</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">123456789098765432</t>
+            <t xml:space="preserve">111111111222330000</t>
           </r>
         </is>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2">
-        <v>1234567890</v>
+        <v>1122334455</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">123456789012</t>
+            <t xml:space="preserve">121223344556</t>
           </r>
         </is>
       </c>
-      <c r="M2"/>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2"/>
       <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
         <v>27</v>
       </c>
+      <c r="P2"/>
       <c r="Q2" t="s">
         <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12128</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">111111111222330003</t>
+          </r>
+        </is>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>1122338888</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">121223344559</t>
+          </r>
+        </is>
+      </c>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12126</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">111111111222330001</t>
+          </r>
+        </is>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>1122336666</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">121223344557</t>
+          </r>
+        </is>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4"/>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>12127</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">111111111222330002</t>
+          </r>
+        </is>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>1122337777</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">121223344558</t>
+          </r>
+        </is>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
